--- a/single-boot/src/test/resources/excel/GodotObjectResource.xlsx
+++ b/single-boot/src/test/resources/excel/GodotObjectResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tank-game-server\single-boot\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50720E04-15C7-4962-A074-14673D10B599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D9D5ED-FE9E-4484-93CD-EEA53ED43684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -709,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -738,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -767,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="1">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>

--- a/single-boot/src/test/resources/excel/GodotObjectResource.xlsx
+++ b/single-boot/src/test/resources/excel/GodotObjectResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tank-game-server\single-boot\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D9D5ED-FE9E-4484-93CD-EEA53ED43684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C04F8-8F99-4946-9CFD-E4C1F29342F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,12 @@
   <si>
     <t>刷新的最小时间秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilibili</t>
+  </si>
+  <si>
+    <t>res://scene/enemy/BiliBili.tscn</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -773,6 +779,35 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>450</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
